--- a/PK/tbemr_basicRegister_codebook_v1.3_pk.xlsx
+++ b/PK/tbemr_basicRegister_codebook_v1.3_pk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://msfintl-my.sharepoint.com/personal/kristina_reinhardt_newyork_msf_org/Documents/github/mart-tbemr-query-library/PK/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{3F628ECC-ADCD-4099-BEC7-9B7DA5B7586B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E56002E-8D0B-42B9-B931-52BD06BB96D4}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{3F628ECC-ADCD-4099-BEC7-9B7DA5B7586B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12099108-BAE6-4F7E-8610-E4A034366BEB}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{A005DB92-A8DC-40CC-A3FD-38C99E047FDE}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{A005DB92-A8DC-40CC-A3FD-38C99E047FDE}"/>
   </bookViews>
   <sheets>
     <sheet name="query_changelog" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="293">
   <si>
     <t>Column</t>
   </si>
@@ -884,12 +884,6 @@
     <t>Modified for use of patient_program_id instead of patient_id + program_id. Added background columns for summing/counting in metabase.</t>
   </si>
   <si>
-    <t>65_background_sum</t>
-  </si>
-  <si>
-    <t>64_background_count</t>
-  </si>
-  <si>
     <t>This is a background column to allow for more simple summing in Metabase</t>
   </si>
   <si>
@@ -914,7 +908,22 @@
     <t>This is the MDRTB start quarter + year from the treatment initiation form</t>
   </si>
   <si>
-    <t>Added treatment start year and quarter for Metabase dashboard filtering (updated minor version numbering)</t>
+    <t>Added treatment start year and quarter for Metabase dashboard filtering (updated minor version numbering), added active patient flag</t>
+  </si>
+  <si>
+    <t>99_background_sum</t>
+  </si>
+  <si>
+    <t>99_background_count</t>
+  </si>
+  <si>
+    <t>64_Active_Treatment</t>
+  </si>
+  <si>
+    <t>Boolean column to flag if patient is currently under treatment (i.e. no treatment end date reported)</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -1594,8 +1603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AFB7678-3E18-497F-ABA7-7D2FE6D40AA7}">
   <dimension ref="B1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1755,18 +1764,18 @@
         <v>44739</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D15" s="22" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="16" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:4" s="11" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B16" s="20">
         <v>44739</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D16" s="22" t="s">
         <v>140</v>
@@ -1803,12 +1812,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{755CC844-63E2-4B85-BD9F-12E3C1EFFCA3}">
-  <dimension ref="A1:J68"/>
+  <dimension ref="A1:J69"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
+      <selection pane="bottomLeft" activeCell="I68" sqref="I68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2240,10 +2249,10 @@
     </row>
     <row r="15" spans="1:10" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>285</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>287</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>55</v>
@@ -2269,10 +2278,10 @@
     </row>
     <row r="16" spans="1:10" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>286</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>288</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>55</v>
@@ -3845,30 +3854,30 @@
         <v>16</v>
       </c>
     </row>
-    <row r="67" spans="1:9" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" s="2" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>16</v>
+        <v>131</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>16</v>
+        <v>136</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>204</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H67" s="2">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>292</v>
       </c>
       <c r="I67" s="2" t="s">
         <v>16</v>
@@ -3876,30 +3885,59 @@
     </row>
     <row r="68" spans="1:9" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H68" s="2">
+        <v>1</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="I68" s="2" t="s">
+      <c r="C69" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="I69" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3911,21 +3949,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010070CE95ABCCDF824688903FE290C52AA9" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="407cfcb431a1568ce500e5bc0124fa9a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="500fc99d-b194-414e-9bc2-944fb4fc9ef3" xmlns:ns4="95809629-8651-4b51-a536-1331494a3072" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="58b948c687cb66ba8472d9e221e8c138" ns3:_="" ns4:_="">
     <xsd:import namespace="500fc99d-b194-414e-9bc2-944fb4fc9ef3"/>
@@ -4134,24 +4157,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEAC8D0C-DBC1-4884-B9C9-C3DF8114B459}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{357647DF-603C-4CA9-B082-BB6ADB1E29DD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4EE0199-3B27-4E13-8063-710C7C97DB35}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4168,4 +4189,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{357647DF-603C-4CA9-B082-BB6ADB1E29DD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEAC8D0C-DBC1-4884-B9C9-C3DF8114B459}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/PK/tbemr_basicRegister_codebook_v1.3_pk.xlsx
+++ b/PK/tbemr_basicRegister_codebook_v1.3_pk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://msfintl-my.sharepoint.com/personal/kristina_reinhardt_newyork_msf_org/Documents/github/mart-tbemr-query-library/PK/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{3F628ECC-ADCD-4099-BEC7-9B7DA5B7586B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12099108-BAE6-4F7E-8610-E4A034366BEB}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{3F628ECC-ADCD-4099-BEC7-9B7DA5B7586B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E23A4E2-E985-4E96-8EEF-C29D5EC65F96}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{A005DB92-A8DC-40CC-A3FD-38C99E047FDE}"/>
+    <workbookView minimized="1" xWindow="52770" yWindow="435" windowWidth="16200" windowHeight="9300" activeTab="1" xr2:uid="{A005DB92-A8DC-40CC-A3FD-38C99E047FDE}"/>
   </bookViews>
   <sheets>
     <sheet name="query_changelog" sheetId="2" r:id="rId1"/>
@@ -69,12 +69,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Unique identifyng number assigned to patients on enrollment to either BMU or Secondline TB register</t>
-  </si>
-  <si>
-    <t>Treatment Registration page &gt; New Treatment Enrollment &gt; Registration Number</t>
-  </si>
-  <si>
     <t>program_attributes</t>
   </si>
   <si>
@@ -93,9 +87,6 @@
     <t>Name of register patient belongs to (either BMU or Secondline TB)</t>
   </si>
   <si>
-    <t>Treatment Registration page &gt; New Treatment Enrollment</t>
-  </si>
-  <si>
     <t>program name</t>
   </si>
   <si>
@@ -135,18 +126,12 @@
     <t>Registration also contains an 'other' option, need to verify how that will appear in tables. Assuming it will appear as an 'O'</t>
   </si>
   <si>
-    <t>Age of patient at treatment enrollement</t>
-  </si>
-  <si>
     <t>age at program</t>
   </si>
   <si>
     <t>int</t>
   </si>
   <si>
-    <t>Age group of patient at treatment enrollement</t>
-  </si>
-  <si>
     <t>Auto-calculation in Bahmni-Mart: grouped based on age at program</t>
   </si>
   <si>
@@ -174,9 +159,6 @@
     <t>Category IV tuberculosis classification</t>
   </si>
   <si>
-    <t>Previously treated with first line drugs only; previously treated with second line drugs; histroy unclear/unknown</t>
-  </si>
-  <si>
     <t>Baseline form &gt; Case Definition section &gt; MTB Confirmation</t>
   </si>
   <si>
@@ -196,9 +178,6 @@
   </si>
   <si>
     <t>Baseline form &gt; Case Definition section &gt; Sub-class of drug resistance profile</t>
-  </si>
-  <si>
-    <t>Baseline Subclassification For Confimed Drug Resistant Case</t>
   </si>
   <si>
     <t>H(S) resistance; HE(S) resistance; R resistance with H susceptibility; GeneXpert RIF resistance only; Confirmed MDR; Confirmed pre-XDR (FQ); Confirmed pre-XDR (Inj); Confirmed XDR; Other</t>
@@ -254,9 +233,6 @@
     <t>TB drugs (medication orders)</t>
   </si>
   <si>
-    <t>if TB drug start date is within +/- 7 days of treatment initiation date date, then 1</t>
-  </si>
-  <si>
     <t>If drug was started and then stopped by accident, then drug will still appear as part of the initial drug regimen</t>
   </si>
   <si>
@@ -350,580 +326,604 @@
     <t>positive; negative; indeterminate</t>
   </si>
   <si>
-    <t>latest speciemen collection date</t>
-  </si>
-  <si>
-    <t>This value is going to be continuosly changing for patients who are still receiving treatment and having new HIV tests added to their patient file</t>
-  </si>
-  <si>
     <t>Summary of HIV baseline and lab results - providing the last known HIV status of patient</t>
+  </si>
+  <si>
+    <t>lab_results_serology_template; baseline_template</t>
+  </si>
+  <si>
+    <t>Lab Hiv Test Result; HIV serostatus result</t>
+  </si>
+  <si>
+    <t>Baseline form &gt; Past Medical History section &gt; Hepatitis &gt; Hepatitis B</t>
+  </si>
+  <si>
+    <t>Baseline hepatitis B</t>
+  </si>
+  <si>
+    <t>Latest Hep B lab result</t>
+  </si>
+  <si>
+    <t>Lab Results - Serology Form &gt; serological tests section &gt;  Hep B ag</t>
+  </si>
+  <si>
+    <t>Lab Hepatitis B Antigen Test Result</t>
+  </si>
+  <si>
+    <t>Reactive; non-reactive; borderline; pending</t>
+  </si>
+  <si>
+    <t>Summary of Hep B baseline and lab results - providing the last known Hep B status of patient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lab Hepatitis B Antigen Test Result; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">If lab test is 'borderline' or 'pending' or baseline status was 'unknown', these will not show up - only the most recent positive/negative results. </t>
+  </si>
+  <si>
+    <t>Baseline form &gt; Past Medical History section &gt; Hepatitis &gt; Hepatitis C</t>
+  </si>
+  <si>
+    <t>Baseline hepatitis C</t>
+  </si>
+  <si>
+    <t>Latest Hep C lab result</t>
+  </si>
+  <si>
+    <t>Lab Results - Serology Form &gt; serological tests section &gt; Hep C ab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lab Hepatitis C Antibody Test Result </t>
+  </si>
+  <si>
+    <t>Summary of Hep C baseline and lab results - providing the last known Hep C status of patient</t>
+  </si>
+  <si>
+    <t>Lab Hepatitis C Antibody Test Result; Baseline hepatitis C</t>
+  </si>
+  <si>
+    <t>Baseline form &gt; Past Medical History section &gt; Chronic diseases sub-section &gt; Diabetes</t>
+  </si>
+  <si>
+    <t>Diabetes mellitus</t>
+  </si>
+  <si>
+    <t>Outcome - End of Treatment Form &gt; Outcome</t>
+  </si>
+  <si>
+    <t>outcome_end_of_treatment_template</t>
+  </si>
+  <si>
+    <t>EoT Outcome</t>
+  </si>
+  <si>
+    <t>cured; completed; died; failed; LTFU; not evaluated; treatment adapted</t>
+  </si>
+  <si>
+    <t>End of treatment date</t>
+  </si>
+  <si>
+    <t>Outcome - End of Treatment Form &gt; End of treatment date</t>
+  </si>
+  <si>
+    <t>Tuberculosis Treatment End Date</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>What was changed</t>
+  </si>
+  <si>
+    <t>Who</t>
+  </si>
+  <si>
+    <t>Kris</t>
+  </si>
+  <si>
+    <t>Added two start date variables. 1) Earliest start date of either Dlm or Bdq; and 2) start date if Dlm and Bdq were started within one week of each other.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date the patient first started either Dlm or Bdq. </t>
+  </si>
+  <si>
+    <t>coded drug name = 'Bedaquiline (Bdq)' or 'Delamanid (Dlm)' and earliest start date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date the patient first started both Dlm and Bdq. The start date for each needs to be within one week of each other. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">coded drug name = 'Bedaquiline (Bdq)' or 'Delamanid (Dlm)' and earliest start date for both if in within one week. </t>
+  </si>
+  <si>
+    <t>Changed HIV status codes to 'HIV Positive'/'HIV Negative' from 'Positive'/'Negative'</t>
+  </si>
+  <si>
+    <t>Baseline form &gt; Case Definition section &gt; Disease Site</t>
+  </si>
+  <si>
+    <t>baseline_disease_site</t>
+  </si>
+  <si>
+    <t>baseline disease site</t>
+  </si>
+  <si>
+    <t>Pulmonary, Extrapulmonary, Both</t>
+  </si>
+  <si>
+    <t>Added disease site from baseline form (codes: 'Pulmonary', 'Extrapulmonary', 'Both')</t>
+  </si>
+  <si>
+    <t>Added secondline treatment type from treatment initiation form</t>
+  </si>
+  <si>
+    <t>Treatment Initiation form &gt; Treatment Initiation section &gt; Second line treatment type</t>
+  </si>
+  <si>
+    <t>Second line regimen drug type</t>
+  </si>
+  <si>
+    <t>PDR scheme B - 3 Cm (or Km)-Lfx-RZ/7 Lfx-RZ, PDR scheme C - 3 Cm (or Km)-Lfx-HZ (+/-E)/12 Lfx-HZ (+/- E), Other PDR regimen, MDR without Dlm or Bdq, MDR with Bdq CU, MDR with Dlm CU, MDR with Bdq Prog, MDR with Dlm Prog, MDR with Dlm &amp; Bdq combination Prog, Other</t>
+  </si>
+  <si>
+    <t>Auto-calculation in Bahmni-Mart based on the date of treatment registration and the date of birth</t>
+  </si>
+  <si>
+    <t>Indicates the WHO registration group that the patient was assigned at baseline</t>
+  </si>
+  <si>
+    <t>Indicates the disease site recorded at baseline. If pulmonary and extrapulmonary are selected then both is indicated</t>
+  </si>
+  <si>
+    <t>Indicates MTB confirmation status at baseline</t>
+  </si>
+  <si>
+    <t>This is the MDRTB start date from the treatment initiation form</t>
+  </si>
+  <si>
+    <t>The number of months a patient have been enrolled in treatment program rounded to the nearest whole month</t>
+  </si>
+  <si>
+    <t>HIV status reported at baseline</t>
+  </si>
+  <si>
+    <t>Hep B status at baseline</t>
+  </si>
+  <si>
+    <t>Outcome indicated at the end of treatment</t>
+  </si>
+  <si>
+    <t>patient_program_medication_view</t>
+  </si>
+  <si>
+    <t>patient_program_medication_view; treatment_initiation_template</t>
+  </si>
+  <si>
+    <t>(facility names defined for the implementation)</t>
+  </si>
+  <si>
+    <t>Added current facility as most recent facility specified in treatment initiation form, hospital admission notification form or followup form</t>
+  </si>
+  <si>
+    <t>Added interim outcome from bacteriology culture results</t>
+  </si>
+  <si>
+    <t>positive; negative</t>
+  </si>
+  <si>
+    <t>HIV positive; HIV negative</t>
+  </si>
+  <si>
+    <t>Hep B Negative; Hep B Positive</t>
+  </si>
+  <si>
+    <t>Hep C Negative; Hep C Positive</t>
+  </si>
+  <si>
+    <t>It is assumed that all patient program registrations are recorded in the patient_program_view. Data can be recorded against a patient program enrolment according to either their patient_program_id or patient_id and program_id</t>
+  </si>
+  <si>
+    <t>dose, null</t>
+  </si>
+  <si>
+    <t>Changed initial drug regimin presentation from "1" if drug strated to the initial drug dose</t>
+  </si>
+  <si>
+    <t>Removed interim outcome - this information will be more accurately captured with culture conversion component</t>
+  </si>
+  <si>
+    <t>Added Initial Culture Conversion, months to initial culture conversion and positive culture after initial culture conversion variables</t>
+  </si>
+  <si>
+    <t>numeric</t>
+  </si>
+  <si>
+    <t>Y,null</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indication if patient had a positive result after the culture conversion date. </t>
+  </si>
+  <si>
+    <t>Bacteriology &gt; Culture Result; Treatment Initiation &gt; Treatment Start Date</t>
+  </si>
+  <si>
+    <t>Bacteriology &gt; Culture Result</t>
+  </si>
+  <si>
+    <t>bacteriology_culture_results_details; bacteriology_concept_set; treatment_initiation_template</t>
+  </si>
+  <si>
+    <t>bacteriology_culture_results_details; bacteriology_concept_set</t>
+  </si>
+  <si>
+    <t>specimen collection date; bacteriology culture results; tuberculosis drug treatment start date</t>
+  </si>
+  <si>
+    <t>specimen collection date; bacteriology culture results</t>
+  </si>
+  <si>
+    <t>Only patients with a positive culture at baseline (90 prior to treatment start date or 15 after treatment start date)</t>
+  </si>
+  <si>
+    <t>initial culture conversion date</t>
+  </si>
+  <si>
+    <t>treatment_initiation_template; hospital_admission_notification_template; followup_template; program_attribtues</t>
+  </si>
+  <si>
+    <t>ti_treatment_facility_at_start (treatment_initiation_template); treatment_facility_name (hospital_admission_notification_template); treatment_facility_name (followup_template); Registration_Facility (program_attributes)</t>
+  </si>
+  <si>
+    <t>Rifapentine (Rpt or P) is part of initial TB drug regimen</t>
+  </si>
+  <si>
+    <t>Pretomanid (Pa) is part of initial TB drug regimen</t>
+  </si>
+  <si>
+    <t>patient program id</t>
+  </si>
+  <si>
+    <t>Diabetes status at baseline</t>
+  </si>
+  <si>
+    <t>Indication if patient had a positive culture result either up to 90 days before or 15 days after the treatment start date.</t>
+  </si>
+  <si>
+    <t>Does not take negative culture results into account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indication if patient had a negative culture result closer to treatment start date than a positive culture result. Only patients with a positive culture result either up to 90 days before or 15 days after the treatment start date are considered. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only patients with a positive culture result either up to 90 days before or 15 days after the treatment start date are considered. </t>
+  </si>
+  <si>
+    <t>Y,N,null</t>
+  </si>
+  <si>
+    <t>Integrated additional culture conversion variables.</t>
+  </si>
+  <si>
+    <t>Renamed column names (added numbering) to adjust for Metabase automatic alphabetical ordering in v0.31 and v0.34</t>
+  </si>
+  <si>
+    <t>02_Register</t>
+  </si>
+  <si>
+    <t>01_Registration_Number</t>
+  </si>
+  <si>
+    <t>04_Sex</t>
+  </si>
+  <si>
+    <t>05_Age_at_Registration</t>
+  </si>
+  <si>
+    <t>07_WHO_Registration_Group</t>
+  </si>
+  <si>
+    <t>08_History_of_Previously_Treated</t>
+  </si>
+  <si>
+    <t>10_MTB_Confirmed</t>
+  </si>
+  <si>
+    <t>11_Drug_Resistance_Profile</t>
+  </si>
+  <si>
+    <t>12_Sub-class_of_Drug_Resistance_Profile</t>
+  </si>
+  <si>
+    <t>13_Treatment_Start_Date</t>
+  </si>
+  <si>
+    <t>14_Treatment_Duration_(months)</t>
+  </si>
+  <si>
+    <t>16_Start_Date_(Dlm)</t>
+  </si>
+  <si>
+    <t>17_Start_Date_(Bdq)</t>
+  </si>
+  <si>
+    <t>18_Start_Date_(Dlm_or_Bdq)</t>
+  </si>
+  <si>
+    <t>19_Start_Date_(Dlm_and_Bdq)</t>
+  </si>
+  <si>
+    <t>20_Last_Facility</t>
+  </si>
+  <si>
+    <t>46_HIV_Baseline</t>
+  </si>
+  <si>
+    <t>47_HIV_Lab</t>
+  </si>
+  <si>
+    <t>48_HIV_Status</t>
+  </si>
+  <si>
+    <t>49_Hep_B_Baseline</t>
+  </si>
+  <si>
+    <t>50_Hep_B_Lab</t>
+  </si>
+  <si>
+    <t>51_Hep_B_Status</t>
+  </si>
+  <si>
+    <t>52_Hep_C_Baseline</t>
+  </si>
+  <si>
+    <t>53_Hep_C_Lab</t>
+  </si>
+  <si>
+    <t>54_Hep_C_Status</t>
+  </si>
+  <si>
+    <t>55_Diabetes_Baseline</t>
+  </si>
+  <si>
+    <t>56_Positive_Culture_at_Baseline</t>
+  </si>
+  <si>
+    <t>58_Culture_Conversion_(for_positive_at_baseline_only)</t>
+  </si>
+  <si>
+    <t>59_Initial_Culture_Conversion_Date</t>
+  </si>
+  <si>
+    <t>60_Months_to_Initial_Culture_Conversion</t>
+  </si>
+  <si>
+    <t>62_Outcome</t>
+  </si>
+  <si>
+    <t>09_Baseline_Disease_Site</t>
+  </si>
+  <si>
+    <t>63_End_of_Treatment_Date</t>
+  </si>
+  <si>
+    <t>57_Negative_Culture_Closer_to_Baseline_Than_Positive_Culture</t>
+  </si>
+  <si>
+    <t>21_Initial_Drug_H</t>
+  </si>
+  <si>
+    <t>22_Initial_Drug_R</t>
+  </si>
+  <si>
+    <t>23_Initial_Drug_E</t>
+  </si>
+  <si>
+    <t>24_Initial_Drug_Z</t>
+  </si>
+  <si>
+    <t>25_Initial_Drug_S</t>
+  </si>
+  <si>
+    <t>26_Initial_Drug_Am</t>
+  </si>
+  <si>
+    <t>27_Initial_Drug_Km</t>
+  </si>
+  <si>
+    <t>28_Initial_Drug_Cm</t>
+  </si>
+  <si>
+    <t>29_Initial_Drug_Lfx</t>
+  </si>
+  <si>
+    <t>30_Initial_Drug_Mfx</t>
+  </si>
+  <si>
+    <t>31_Initial_Drug_Pto</t>
+  </si>
+  <si>
+    <t>32_Initial_Drug_Eto</t>
+  </si>
+  <si>
+    <t>33_Initial_Drug_Cs</t>
+  </si>
+  <si>
+    <t>34_Initial_Drug_Trd</t>
+  </si>
+  <si>
+    <t>35_Initial_Drug_PAS</t>
+  </si>
+  <si>
+    <t>36_Initial_Drug_PAS-Na</t>
+  </si>
+  <si>
+    <t>37_Initial_Drug_Bdq</t>
+  </si>
+  <si>
+    <t>38_Initial_Drug_Dlm</t>
+  </si>
+  <si>
+    <t>39_Initial_Drug_Lzd</t>
+  </si>
+  <si>
+    <t>40_Initial_Drug_Cfz</t>
+  </si>
+  <si>
+    <t>41_Initial_Drug_Imp/Clm</t>
+  </si>
+  <si>
+    <t>42_Initial_Drug_Amx/Clv</t>
+  </si>
+  <si>
+    <t>43_Initial_Drug_Mpm</t>
+  </si>
+  <si>
+    <t>44_Initial_Drug_Pa</t>
+  </si>
+  <si>
+    <t>45_Initial_Drug_Rpt_or_P</t>
+  </si>
+  <si>
+    <t>06_Age_Group_at_Registration</t>
+  </si>
+  <si>
+    <t>03_EMR_ID</t>
+  </si>
+  <si>
+    <t>61_Reconversion_after_Initial_Culture_Conversion</t>
+  </si>
+  <si>
+    <t>15_Second_Line_Treatment_Type</t>
+  </si>
+  <si>
+    <t>Modified for use of patient_program_id instead of patient_id + program_id. Added background columns for summing/counting in metabase.</t>
+  </si>
+  <si>
+    <t>This is a background column to allow for more simple summing in Metabase</t>
+  </si>
+  <si>
+    <t>This is a background column to allow for more simple counting in Metabase</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Revised query to accommodate metadata changes made for the Pakistan implementation, including removing last visit date (not collected) and changes to last facility (concept name changes, other not collected).</t>
+  </si>
+  <si>
+    <t>13_Treatment_Start_Year</t>
+  </si>
+  <si>
+    <t>13_Treatment_Start_Quarter</t>
+  </si>
+  <si>
+    <t>This is the MDRTB start year from the treatment initiation form</t>
+  </si>
+  <si>
+    <t>This is the MDRTB start quarter + year from the treatment initiation form</t>
+  </si>
+  <si>
+    <t>Added treatment start year and quarter for Metabase dashboard filtering (updated minor version numbering), added active patient flag</t>
+  </si>
+  <si>
+    <t>99_background_sum</t>
+  </si>
+  <si>
+    <t>99_background_count</t>
+  </si>
+  <si>
+    <t>64_Active_Treatment</t>
+  </si>
+  <si>
+    <t>Boolean column to flag if patient is currently under treatment (i.e. no treatment end date reported)</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This value is going to be continuously changing for patients who are still receiving treatment and will be dependent on time when Bahmni-Mart synced with the OpenMRS data base. </t>
+  </si>
+  <si>
+    <t>Indicates the second line drug regimen type at treatment initiation</t>
+  </si>
+  <si>
+    <t>Last reported treatment facility from treatment initiation, hospital admission notification and follow-up forms. If no recent facility is mentioned, the registration facility from program enrolment is displayed.</t>
+  </si>
+  <si>
+    <t>Treatment Initiation &gt; Treatment Initiation section &gt; treatment start date and treatment facility at start; Followup Assessment &gt; visit date and treatment facility name; Hospital Admission Notification &gt; hospital admission date and treatment facility name; Program enrolment &gt; registration facility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If no facility is mentioned in any of the three forms, the registration facility from program enrolment is used. If "Other" facility has been selected on the hospital admission notification form or follow-up form, then the free text name of the facility is used. </t>
+  </si>
+  <si>
+    <t>if TB drug start date is within +/- 7 days of treatment initiation date , then 1</t>
+  </si>
+  <si>
+    <t>latest specimen collection date</t>
+  </si>
+  <si>
+    <t>This value is going to be continuously changing for patients who are still receiving treatment and having new HIV tests added to their patient file</t>
   </si>
   <si>
     <t>Calculated in Metabase data table: 
 - if there is a HIV lab result in the lab results serology template, then the latest result is presented
-- if there is not a HIV lab result, then HIV status from the basline template is presented</t>
-  </si>
-  <si>
-    <t>lab_results_serology_template; baseline_template</t>
-  </si>
-  <si>
-    <t>Lab Hiv Test Result; HIV serostatus result</t>
-  </si>
-  <si>
-    <t>Baseline form &gt; Past Medical History section &gt; Hepatitis &gt; Hepatitis B</t>
-  </si>
-  <si>
-    <t>Baseline hepatitis B</t>
-  </si>
-  <si>
-    <t>Latest Hep B lab result</t>
-  </si>
-  <si>
-    <t>Lab Results - Serology Form &gt; serological tests section &gt;  Hep B ag</t>
-  </si>
-  <si>
-    <t>Lab Hepatitis B Antigen Test Result</t>
-  </si>
-  <si>
-    <t>Reactive; non-reactive; borderline; pending</t>
-  </si>
-  <si>
-    <t>This value is going to be continuosly changing for patients who are still receiving treatment and having new hepatitis tests added to their patient file</t>
-  </si>
-  <si>
-    <t>Summary of Hep B baseline and lab results - providing the last known Hep B status of patient</t>
+- if there is not a HIV lab result, then HIV status from the baseline template is presented</t>
+  </si>
+  <si>
+    <t>This value is going to be continuously changing for patients who are still receiving treatment and having new hepatitis tests added to their patient file</t>
   </si>
   <si>
     <t>Calculated in Metabase data tables: 
 - if there is a Hep B lab result in the lab results serology template, then the latest result is presented
-- if there is not a Hep B lab sersult,  then Hep B status from the baseline remplate is presented</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lab Hepatitis B Antigen Test Result; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">If lab test is 'borderline' or 'pending' or baseline status was 'unknown', these will not show up - only the most recent positive/negative results. </t>
-  </si>
-  <si>
-    <t>Baseline form &gt; Past Medical History section &gt; Hepatitis &gt; Hepatitis C</t>
-  </si>
-  <si>
-    <t>Baseline hepatitis C</t>
-  </si>
-  <si>
-    <t>Latest Hep C lab result</t>
-  </si>
-  <si>
-    <t>Lab Results - Serology Form &gt; serological tests section &gt; Hep C ab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lab Hepatitis C Antibody Test Result </t>
-  </si>
-  <si>
-    <t>Summary of Hep C baseline and lab results - providing the last known Hep C status of patient</t>
+- if there is not a Hep B lab result,  then Hep B status from the baseline template is presented</t>
+  </si>
+  <si>
+    <t>Hep C status at baseline</t>
   </si>
   <si>
     <t>Calculated in Metabase data tables: 
 - if there is a Hep C lab result in the lab results serology template, then the latest result is presented
-- if there is not a Hep B lab sersult,  then Hep C status from the baseline remplate is presented</t>
-  </si>
-  <si>
-    <t>Lab Hepatitis C Antibody Test Result; Baseline hepatitis C</t>
-  </si>
-  <si>
-    <t>Baseline form &gt; Past Medical History section &gt; Chronic diseases sub-section &gt; Diabetes</t>
-  </si>
-  <si>
-    <t>Diabetes mellitus</t>
-  </si>
-  <si>
-    <t>Outcome - End of Treatment Form &gt; Outcome</t>
-  </si>
-  <si>
-    <t>outcome_end_of_treatment_template</t>
-  </si>
-  <si>
-    <t>EoT Outcome</t>
-  </si>
-  <si>
-    <t>cured; completed; died; failed; LTFU; not evaluated; treatment adapted</t>
-  </si>
-  <si>
-    <t>End of treatment date</t>
-  </si>
-  <si>
-    <t>Outcome - End of Treatment Form &gt; End of treatment date</t>
-  </si>
-  <si>
-    <t>Tuberculosis Treatment End Date</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>What was changed</t>
-  </si>
-  <si>
-    <t>Who</t>
-  </si>
-  <si>
-    <t>Kris</t>
-  </si>
-  <si>
-    <t>Added two start date variables. 1) Earliest start date of either Dlm or Bdq; and 2) start date if Dlm and Bdq were started within one week of each other.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date the patient first started either Dlm or Bdq. </t>
-  </si>
-  <si>
-    <t>coded drug name = 'Bedaquiline (Bdq)' or 'Delamanid (Dlm)' and earliest start date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date the patient first started both Dlm and Bdq. The start date for each needs to be within one week of each other. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">coded drug name = 'Bedaquiline (Bdq)' or 'Delamanid (Dlm)' and earliest start date for both if in within one week. </t>
-  </si>
-  <si>
-    <t>Changed HIV status codes to 'HIV Positive'/'HIV Negative' from 'Positive'/'Negative'</t>
-  </si>
-  <si>
-    <t>Baseline form &gt; Case Definition section &gt; Disease Site</t>
-  </si>
-  <si>
-    <t>baseline_disease_site</t>
-  </si>
-  <si>
-    <t>baseline disease site</t>
-  </si>
-  <si>
-    <t>Pulmonary, Extrapulmonary, Both</t>
-  </si>
-  <si>
-    <t>Added disease site from baseline form (codes: 'Pulmonary', 'Extrapulmonary', 'Both')</t>
-  </si>
-  <si>
-    <t>Added secondline treatment type from treatment initiation form</t>
-  </si>
-  <si>
-    <t>Treatment Initiation form &gt; Treatment Initiation section &gt; Second line treatment type</t>
-  </si>
-  <si>
-    <t>Second line regimen drug type</t>
-  </si>
-  <si>
-    <t>PDR scheme B - 3 Cm (or Km)-Lfx-RZ/7 Lfx-RZ, PDR scheme C - 3 Cm (or Km)-Lfx-HZ (+/-E)/12 Lfx-HZ (+/- E), Other PDR regimen, MDR without Dlm or Bdq, MDR with Bdq CU, MDR with Dlm CU, MDR with Bdq Prog, MDR with Dlm Prog, MDR with Dlm &amp; Bdq combination Prog, Other</t>
-  </si>
-  <si>
-    <t>Auto-calculation in Bahmni-Mart based on the date of treatment registration and the date of birth</t>
-  </si>
-  <si>
-    <t>Indicates the WHO registration group that the patient was assigned at baseline</t>
-  </si>
-  <si>
-    <t>Indicates the previsous treatment group for patients not in new WHO registration group</t>
-  </si>
-  <si>
-    <t>Indicates the drug resistence profile of cases at baseline</t>
-  </si>
-  <si>
-    <t>Indicates the disease site recorded at baseline. If pulmonary and extrapulmonary are selected then both is indicated</t>
-  </si>
-  <si>
-    <t>Indicates MTB confirmation status at baseline</t>
-  </si>
-  <si>
-    <t>Indicates the sub-classificartion of drug resistence for confirmed cases at baseline</t>
-  </si>
-  <si>
-    <t>This is the MDRTB start date from the treatment initiation form</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This value is going to be continuosly changing for patients who are still receiving treatment and will be dependent on time when Bahmni-Mart synced with the OpenMRS data base. </t>
-  </si>
-  <si>
-    <t>Indicates the second line drug regimine type at treatment initiation</t>
-  </si>
-  <si>
-    <t>The number of months a patient have been enrolled in treatment program rounded to the nearest whole month</t>
-  </si>
-  <si>
-    <t>HIV status reported at baseline</t>
-  </si>
-  <si>
-    <t>Hep B status at baseline</t>
-  </si>
-  <si>
-    <t>Hep C status at basline</t>
-  </si>
-  <si>
-    <t>Outcome indicated at the end of treatment</t>
-  </si>
-  <si>
-    <t>patient_program_medication_view</t>
-  </si>
-  <si>
-    <t>patient_program_medication_view; treatment_initiation_template</t>
-  </si>
-  <si>
-    <t>(facility names defined for the implementation)</t>
-  </si>
-  <si>
-    <t>Added current facility as most recent facility specified in treatment initiation form, hospital admission notification form or followup form</t>
-  </si>
-  <si>
-    <t>Added interim outcome from bacteriology culture results</t>
-  </si>
-  <si>
-    <t>positive; negative</t>
-  </si>
-  <si>
-    <t>HIV positive; HIV negative</t>
-  </si>
-  <si>
-    <t>Hep B Negative; Hep B Positive</t>
-  </si>
-  <si>
-    <t>Hep C Negative; Hep C Positive</t>
-  </si>
-  <si>
-    <t>It is assumed that all patient program registrations are recorded in the patient_program_view. Data can be recorded against a patient program enrolment according to either their patient_program_id or patient_id and program_id</t>
-  </si>
-  <si>
-    <t>dose, null</t>
-  </si>
-  <si>
-    <t>Changed initial drug regimin presentation from "1" if drug strated to the initial drug dose</t>
-  </si>
-  <si>
-    <t>Removed interim outcome - this information will be more accurately captured with culture conversion component</t>
-  </si>
-  <si>
-    <t>Added Initial Culture Conversion, months to initial culture conversion and positive culture after initial culture conversion variables</t>
-  </si>
-  <si>
-    <t>numeric</t>
-  </si>
-  <si>
-    <t>Y,null</t>
-  </si>
-  <si>
-    <t>Date of first negative culture result that is preceeded by a second negative result more than 15 days later with no positive culture results recorded on or inbetween the negative cultures for all patients with a positive culture results at baseline</t>
-  </si>
-  <si>
-    <t>Number of months between the initial culture conversion date and treatment initation start date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indication if patient had a positive result after the culture conversion date. </t>
-  </si>
-  <si>
-    <t>Bacteriology &gt; Culture Result; Treatment Initiation &gt; Treatment Start Date</t>
-  </si>
-  <si>
-    <t>Bacteriology &gt; Culture Result</t>
-  </si>
-  <si>
-    <t>bacteriology_culture_results_details; bacteriology_concept_set; treatment_initiation_template</t>
-  </si>
-  <si>
-    <t>bacteriology_culture_results_details; bacteriology_concept_set</t>
-  </si>
-  <si>
-    <t>specimen collection date; bacteriology culture results; tuberculosis drug treatment start date</t>
-  </si>
-  <si>
-    <t>specimen collection date; bacteriology culture results</t>
-  </si>
-  <si>
-    <t>Only patients with a positive culture at baseline (90 prior to treatment start date or 15 after treatment start date)</t>
-  </si>
-  <si>
-    <t>initial culture conversion date</t>
-  </si>
-  <si>
-    <t>Treatment Initiation &gt; Treatment Initiation section &gt; treatment start date and treatment facility at start; Followup Assessment &gt; visit date and treatment facility name; Hospital Admission Notification &gt; hospital admission date and treatment facility name; Program enrollment &gt; registration facility</t>
-  </si>
-  <si>
-    <t>treatment_initiation_template; hospital_admission_notification_template; followup_template; program_attribtues</t>
-  </si>
-  <si>
-    <t>ti_treatment_facility_at_start (treatment_initiation_template); treatment_facility_name (hospital_admission_notification_template); treatment_facility_name (followup_template); Registration_Facility (program_attributes)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If no facility is mentioned in any of the three forms, the registration facility from program enrollment is used. If "Other" facility has been selected on the hospital admission notification form or follow-up form, then the free text name of the facility is used. </t>
-  </si>
-  <si>
-    <t>Rifapentine (Rpt or P) is part of initial TB drug regimen</t>
-  </si>
-  <si>
-    <t>Pretomanid (Pa) is part of initial TB drug regimen</t>
-  </si>
-  <si>
-    <t>patient program id</t>
-  </si>
-  <si>
-    <t>Last reported treatment facility from treatment initiation, hospital admission notification and follow-up forms. If no recent facility is mentioned, the registration facility from program enrollment is displayed.</t>
-  </si>
-  <si>
-    <t>Diabetes status at baseline</t>
-  </si>
-  <si>
-    <t>Indication if patient had a positive culture result either up to 90 days before or 15 days after the treatment start date.</t>
-  </si>
-  <si>
-    <t>Does not take negative culture results into account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indication if patient had a negative culture result closer to treatment start date than a positive culture result. Only patients with a positive culture result either up to 90 days before or 15 days after the treatment start date are considered. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Only patients with a positive culture result either up to 90 days before or 15 days after the treatment start date are considered. </t>
-  </si>
-  <si>
-    <t>Y,N,null</t>
-  </si>
-  <si>
-    <t>Indication of patients who had a positive culture result at baseline who have cultured converted. 'Y' for positive culture result at baseline and have culture convered and 'N' for positive culture result at baseline but have not culture converted.</t>
-  </si>
-  <si>
-    <t>Integrated additional culture conversion variables.</t>
-  </si>
-  <si>
-    <t>Renamed column names (added numbering) to adjust for Metabase automatic alphabetical ordering in v0.31 and v0.34</t>
-  </si>
-  <si>
-    <t>02_Register</t>
-  </si>
-  <si>
-    <t>01_Registration_Number</t>
-  </si>
-  <si>
-    <t>04_Sex</t>
-  </si>
-  <si>
-    <t>05_Age_at_Registration</t>
-  </si>
-  <si>
-    <t>07_WHO_Registration_Group</t>
-  </si>
-  <si>
-    <t>08_History_of_Previously_Treated</t>
-  </si>
-  <si>
-    <t>10_MTB_Confirmed</t>
-  </si>
-  <si>
-    <t>11_Drug_Resistance_Profile</t>
-  </si>
-  <si>
-    <t>12_Sub-class_of_Drug_Resistance_Profile</t>
-  </si>
-  <si>
-    <t>13_Treatment_Start_Date</t>
-  </si>
-  <si>
-    <t>14_Treatment_Duration_(months)</t>
-  </si>
-  <si>
-    <t>16_Start_Date_(Dlm)</t>
-  </si>
-  <si>
-    <t>17_Start_Date_(Bdq)</t>
-  </si>
-  <si>
-    <t>18_Start_Date_(Dlm_or_Bdq)</t>
-  </si>
-  <si>
-    <t>19_Start_Date_(Dlm_and_Bdq)</t>
-  </si>
-  <si>
-    <t>20_Last_Facility</t>
-  </si>
-  <si>
-    <t>46_HIV_Baseline</t>
-  </si>
-  <si>
-    <t>47_HIV_Lab</t>
-  </si>
-  <si>
-    <t>48_HIV_Status</t>
-  </si>
-  <si>
-    <t>49_Hep_B_Baseline</t>
-  </si>
-  <si>
-    <t>50_Hep_B_Lab</t>
-  </si>
-  <si>
-    <t>51_Hep_B_Status</t>
-  </si>
-  <si>
-    <t>52_Hep_C_Baseline</t>
-  </si>
-  <si>
-    <t>53_Hep_C_Lab</t>
-  </si>
-  <si>
-    <t>54_Hep_C_Status</t>
-  </si>
-  <si>
-    <t>55_Diabetes_Baseline</t>
-  </si>
-  <si>
-    <t>56_Positive_Culture_at_Baseline</t>
-  </si>
-  <si>
-    <t>58_Culture_Conversion_(for_positive_at_baseline_only)</t>
-  </si>
-  <si>
-    <t>59_Initial_Culture_Conversion_Date</t>
-  </si>
-  <si>
-    <t>60_Months_to_Initial_Culture_Conversion</t>
-  </si>
-  <si>
-    <t>62_Outcome</t>
-  </si>
-  <si>
-    <t>09_Baseline_Disease_Site</t>
-  </si>
-  <si>
-    <t>63_End_of_Treatment_Date</t>
-  </si>
-  <si>
-    <t>57_Negative_Culture_Closer_to_Baseline_Than_Positive_Culture</t>
-  </si>
-  <si>
-    <t>21_Initial_Drug_H</t>
-  </si>
-  <si>
-    <t>22_Initial_Drug_R</t>
-  </si>
-  <si>
-    <t>23_Initial_Drug_E</t>
-  </si>
-  <si>
-    <t>24_Initial_Drug_Z</t>
-  </si>
-  <si>
-    <t>25_Initial_Drug_S</t>
-  </si>
-  <si>
-    <t>26_Initial_Drug_Am</t>
-  </si>
-  <si>
-    <t>27_Initial_Drug_Km</t>
-  </si>
-  <si>
-    <t>28_Initial_Drug_Cm</t>
-  </si>
-  <si>
-    <t>29_Initial_Drug_Lfx</t>
-  </si>
-  <si>
-    <t>30_Initial_Drug_Mfx</t>
-  </si>
-  <si>
-    <t>31_Initial_Drug_Pto</t>
-  </si>
-  <si>
-    <t>32_Initial_Drug_Eto</t>
-  </si>
-  <si>
-    <t>33_Initial_Drug_Cs</t>
-  </si>
-  <si>
-    <t>34_Initial_Drug_Trd</t>
-  </si>
-  <si>
-    <t>35_Initial_Drug_PAS</t>
-  </si>
-  <si>
-    <t>36_Initial_Drug_PAS-Na</t>
-  </si>
-  <si>
-    <t>37_Initial_Drug_Bdq</t>
-  </si>
-  <si>
-    <t>38_Initial_Drug_Dlm</t>
-  </si>
-  <si>
-    <t>39_Initial_Drug_Lzd</t>
-  </si>
-  <si>
-    <t>40_Initial_Drug_Cfz</t>
-  </si>
-  <si>
-    <t>41_Initial_Drug_Imp/Clm</t>
-  </si>
-  <si>
-    <t>42_Initial_Drug_Amx/Clv</t>
-  </si>
-  <si>
-    <t>43_Initial_Drug_Mpm</t>
-  </si>
-  <si>
-    <t>44_Initial_Drug_Pa</t>
-  </si>
-  <si>
-    <t>45_Initial_Drug_Rpt_or_P</t>
-  </si>
-  <si>
-    <t>06_Age_Group_at_Registration</t>
-  </si>
-  <si>
-    <t>03_EMR_ID</t>
-  </si>
-  <si>
-    <t>61_Reconversion_after_Initial_Culture_Conversion</t>
-  </si>
-  <si>
-    <t>15_Second_Line_Treatment_Type</t>
-  </si>
-  <si>
-    <t>Modified for use of patient_program_id instead of patient_id + program_id. Added background columns for summing/counting in metabase.</t>
-  </si>
-  <si>
-    <t>This is a background column to allow for more simple summing in Metabase</t>
-  </si>
-  <si>
-    <t>This is a background column to allow for more simple counting in Metabase</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>Revised query to accommodate metadata changes made for the Pakistan implementation, including removing last visit date (not collected) and changes to last facility (concept name changes, other not collected).</t>
-  </si>
-  <si>
-    <t>13_Treatment_Start_Year</t>
-  </si>
-  <si>
-    <t>13_Treatment_Start_Quarter</t>
-  </si>
-  <si>
-    <t>This is the MDRTB start year from the treatment initiation form</t>
-  </si>
-  <si>
-    <t>This is the MDRTB start quarter + year from the treatment initiation form</t>
-  </si>
-  <si>
-    <t>Added treatment start year and quarter for Metabase dashboard filtering (updated minor version numbering), added active patient flag</t>
-  </si>
-  <si>
-    <t>99_background_sum</t>
-  </si>
-  <si>
-    <t>99_background_count</t>
-  </si>
-  <si>
-    <t>64_Active_Treatment</t>
-  </si>
-  <si>
-    <t>Boolean column to flag if patient is currently under treatment (i.e. no treatment end date reported)</t>
-  </si>
-  <si>
-    <t>Yes</t>
+- if there is not a Hep B lab result,  then Hep C status from the baseline template is presented</t>
+  </si>
+  <si>
+    <t>Indication of patients who had a positive culture result at baseline who have cultured converted. 'Y' for positive culture result at baseline and have culture converted and 'N' for positive culture result at baseline but have not culture converted.</t>
+  </si>
+  <si>
+    <t>Date of first negative culture result that is preceded by a second negative result more than 15 days later with no positive culture results recorded on or in-between the negative cultures for all patients with a positive culture results at baseline</t>
+  </si>
+  <si>
+    <t>Number of months between the initial culture conversion date and treatment initiation start date</t>
+  </si>
+  <si>
+    <t>Unique identifying number assigned to patients on enrolment to either BMU or Secondline TB register</t>
+  </si>
+  <si>
+    <t>Treatment Registration page &gt; New Treatment Enrolment &gt; Registration Number</t>
+  </si>
+  <si>
+    <t>Treatment Registration page &gt; New Treatment Enrolment</t>
+  </si>
+  <si>
+    <t>Age of patient at treatment enrolment</t>
+  </si>
+  <si>
+    <t>Age group of patient at treatment enrolment</t>
+  </si>
+  <si>
+    <t>Indicates the previous treatment group for patients not in new WHO registration group</t>
+  </si>
+  <si>
+    <t>Previously treated with first line drugs only; previously treated with second line drugs; history unclear/unknown</t>
+  </si>
+  <si>
+    <t>Indicates the drug resistance profile of cases at baseline</t>
+  </si>
+  <si>
+    <t>Indicates the sub-classification of drug resistance for confirmed cases at baseline</t>
+  </si>
+  <si>
+    <t>Baseline Subclassification For Confirmed Drug Resistant Case</t>
   </si>
 </sst>
 </file>
@@ -1618,13 +1618,13 @@
     <row r="1" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="14" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -1632,10 +1632,10 @@
         <v>43521</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
@@ -1643,10 +1643,10 @@
         <v>43521</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
@@ -1654,10 +1654,10 @@
         <v>43521</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
@@ -1665,10 +1665,10 @@
         <v>43521</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -1676,10 +1676,10 @@
         <v>43521</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
@@ -1687,10 +1687,10 @@
         <v>43521</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
@@ -1698,10 +1698,10 @@
         <v>43782</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
@@ -1709,10 +1709,10 @@
         <v>43782</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -1720,10 +1720,10 @@
         <v>43784</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
@@ -1731,10 +1731,10 @@
         <v>43832</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
@@ -1742,10 +1742,10 @@
         <v>44074</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="2:4" s="11" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -1753,10 +1753,10 @@
         <v>44169</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="2:4" s="11" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -1764,10 +1764,10 @@
         <v>44739</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>282</v>
+        <v>256</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="2:4" s="11" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -1775,10 +1775,10 @@
         <v>44739</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.3">
@@ -1814,10 +1814,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{755CC844-63E2-4B85-BD9F-12E3C1EFFCA3}">
   <dimension ref="A1:J69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="I68" sqref="I68"/>
+      <selection pane="bottomLeft" activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1866,2079 +1866,2079 @@
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="42" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="I3" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="G4" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="2" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="I5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="2" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>32</v>
+        <v>286</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>35</v>
+        <v>287</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="2" customFormat="1" ht="69" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="2" customFormat="1" ht="69" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>158</v>
+        <v>288</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>45</v>
+        <v>289</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>221</v>
+        <v>195</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>159</v>
+        <v>290</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="2" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>162</v>
+        <v>291</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>53</v>
+        <v>292</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>224</v>
+        <v>198</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>283</v>
+        <v>257</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>285</v>
+        <v>259</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>284</v>
+        <v>258</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="2" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>225</v>
+        <v>199</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>164</v>
+        <v>267</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="2" customFormat="1" ht="151.80000000000001" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>165</v>
+        <v>268</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="2" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="2" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>227</v>
+        <v>201</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="2" customFormat="1" ht="69" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="2" customFormat="1" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>230</v>
+        <v>204</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>205</v>
+        <v>269</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>198</v>
+        <v>270</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>201</v>
+        <v>271</v>
       </c>
     </row>
     <row r="24" spans="1:10" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>71</v>
+        <v>272</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:10" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>71</v>
+        <v>272</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:10" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>71</v>
+        <v>272</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:10" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>252</v>
+        <v>226</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>71</v>
+        <v>272</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:10" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>71</v>
+        <v>272</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:10" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>71</v>
+        <v>272</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:10" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>71</v>
+        <v>272</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:10" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>71</v>
+        <v>272</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:10" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>257</v>
+        <v>231</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>71</v>
+        <v>272</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:10" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>71</v>
+        <v>272</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:10" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>259</v>
+        <v>233</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>71</v>
+        <v>272</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:10" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>71</v>
+        <v>272</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:10" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>71</v>
+        <v>272</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:10" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>71</v>
+        <v>272</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:10" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>71</v>
+        <v>272</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:10" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>264</v>
+        <v>238</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>71</v>
+        <v>272</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:10" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>71</v>
+        <v>272</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:10" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>71</v>
+        <v>272</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:10" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>267</v>
+        <v>241</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>71</v>
+        <v>272</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:10" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>268</v>
+        <v>242</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>71</v>
+        <v>272</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:10" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>71</v>
+        <v>272</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:10" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>270</v>
+        <v>244</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>71</v>
+        <v>272</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="46" spans="1:10" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>71</v>
+        <v>272</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:10" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="I47" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="J47" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:10" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>71</v>
+        <v>272</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:10" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:10" s="2" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>103</v>
+        <v>273</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>104</v>
+        <v>274</v>
       </c>
     </row>
     <row r="51" spans="1:10" s="2" customFormat="1" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>233</v>
+        <v>207</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>106</v>
+        <v>275</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>103</v>
+        <v>273</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>104</v>
+        <v>274</v>
       </c>
     </row>
     <row r="52" spans="1:10" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:10" s="2" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>103</v>
+        <v>273</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>115</v>
+        <v>276</v>
       </c>
     </row>
     <row r="54" spans="1:10" s="2" customFormat="1" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>117</v>
+        <v>277</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>103</v>
+        <v>273</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
     </row>
     <row r="55" spans="1:10" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>169</v>
+        <v>278</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:10" s="2" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>238</v>
+        <v>212</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>103</v>
+        <v>273</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>115</v>
+        <v>276</v>
       </c>
     </row>
     <row r="57" spans="1:10" s="2" customFormat="1" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>126</v>
+        <v>279</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>103</v>
+        <v>273</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
     </row>
     <row r="58" spans="1:10" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>240</v>
+        <v>214</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:10" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
     </row>
     <row r="60" spans="1:10" s="2" customFormat="1" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
     </row>
     <row r="61" spans="1:10" s="2" customFormat="1" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
     </row>
     <row r="62" spans="1:10" s="2" customFormat="1" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>187</v>
+        <v>281</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
     </row>
     <row r="63" spans="1:10" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>188</v>
+        <v>282</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
     </row>
     <row r="64" spans="1:10" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
     </row>
     <row r="65" spans="1:9" s="2" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66" spans="1:9" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:9" s="2" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>290</v>
+        <v>264</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>291</v>
+        <v>265</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>292</v>
+        <v>266</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68" spans="1:9" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>288</v>
+        <v>262</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H68" s="2">
         <v>1</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="69" spans="1:9" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>289</v>
+        <v>263</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>281</v>
+        <v>255</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -3949,6 +3949,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010070CE95ABCCDF824688903FE290C52AA9" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="407cfcb431a1568ce500e5bc0124fa9a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="500fc99d-b194-414e-9bc2-944fb4fc9ef3" xmlns:ns4="95809629-8651-4b51-a536-1331494a3072" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="58b948c687cb66ba8472d9e221e8c138" ns3:_="" ns4:_="">
     <xsd:import namespace="500fc99d-b194-414e-9bc2-944fb4fc9ef3"/>
@@ -4157,22 +4172,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEAC8D0C-DBC1-4884-B9C9-C3DF8114B459}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{357647DF-603C-4CA9-B082-BB6ADB1E29DD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4EE0199-3B27-4E13-8063-710C7C97DB35}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4189,21 +4206,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{357647DF-603C-4CA9-B082-BB6ADB1E29DD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEAC8D0C-DBC1-4884-B9C9-C3DF8114B459}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>